--- a/Results-mean-values.xlsx
+++ b/Results-mean-values.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzaeken/Desktop/ChangePrediction/prediction-results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzaeken/Desktop/ChangePrediction/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6384BAE-38FE-7D42-9AFF-AE226F9ABF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B928AF-75E5-7C49-A1A6-68FA21F81411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{FAC5E3C7-3AE2-E347-9394-F47CC9282626}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>Model</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>MCC</t>
-  </si>
-  <si>
-    <t>BScore</t>
   </si>
   <si>
     <t>NB</t>
@@ -472,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64736C1-9442-674B-8647-231797E94435}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,9 +481,9 @@
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -509,16 +506,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C2">
         <v>0.73699999999999999</v>
@@ -538,16 +532,13 @@
       <c r="H2">
         <v>0.13300000000000001</v>
       </c>
-      <c r="I2">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0.73299999999999998</v>
@@ -567,16 +558,13 @@
       <c r="H3">
         <v>0.17299999999999999</v>
       </c>
-      <c r="I3">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>0.76300000000000001</v>
@@ -596,16 +584,13 @@
       <c r="H4">
         <v>0.17100000000000001</v>
       </c>
-      <c r="I4">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0.76200000000000001</v>
@@ -625,16 +610,13 @@
       <c r="H5">
         <v>0.19900000000000001</v>
       </c>
-      <c r="I5">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>0.54300000000000004</v>
@@ -654,16 +636,13 @@
       <c r="H7">
         <v>0.33400000000000002</v>
       </c>
-      <c r="I7">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0.69299999999999995</v>
@@ -683,16 +662,13 @@
       <c r="H8">
         <v>0.52100000000000002</v>
       </c>
-      <c r="I8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>0.73799999999999999</v>
@@ -712,16 +688,13 @@
       <c r="H9">
         <v>0.58099999999999996</v>
       </c>
-      <c r="I9">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>0.81699999999999995</v>
@@ -741,16 +714,13 @@
       <c r="H10">
         <v>0.70199999999999996</v>
       </c>
-      <c r="I10">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>0.91500000000000004</v>
@@ -770,16 +740,13 @@
       <c r="H12">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I12">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>0.999</v>
@@ -799,16 +766,13 @@
       <c r="H13">
         <v>0.999</v>
       </c>
-      <c r="I13">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>0.95699999999999996</v>
@@ -828,16 +792,13 @@
       <c r="H14">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I14">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -857,16 +818,13 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0.54500000000000004</v>
@@ -886,16 +844,13 @@
       <c r="H17">
         <v>0.40400000000000003</v>
       </c>
-      <c r="I17">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>0.68200000000000005</v>
@@ -915,16 +870,13 @@
       <c r="H18">
         <v>0.56100000000000005</v>
       </c>
-      <c r="I18">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>0.71799999999999997</v>
@@ -944,16 +896,13 @@
       <c r="H19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="I19">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>0.80100000000000005</v>
@@ -973,16 +922,13 @@
       <c r="H20">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I20">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>0.89</v>
@@ -1002,16 +948,13 @@
       <c r="H22">
         <v>0.91400000000000003</v>
       </c>
-      <c r="I22">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>0.998</v>
@@ -1031,16 +974,13 @@
       <c r="H23">
         <v>0.999</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>0.94699999999999995</v>
@@ -1060,16 +1000,13 @@
       <c r="H24">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I24">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1089,16 +1026,13 @@
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>0.48399999999999999</v>
@@ -1118,16 +1052,13 @@
       <c r="H27">
         <v>0.246</v>
       </c>
-      <c r="I27">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>0.53800000000000003</v>
@@ -1147,16 +1078,13 @@
       <c r="H28">
         <v>0.30599999999999999</v>
       </c>
-      <c r="I28">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>0.59199999999999997</v>
@@ -1176,16 +1104,13 @@
       <c r="H29">
         <v>0.36099999999999999</v>
       </c>
-      <c r="I29">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>0.61599999999999999</v>
@@ -1204,9 +1129,6 @@
       </c>
       <c r="H30">
         <v>0.39200000000000002</v>
-      </c>
-      <c r="I30">
-        <v>9.9000000000000005E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Results-mean-values.xlsx
+++ b/Results-mean-values.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzaeken/Desktop/ChangePrediction/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B928AF-75E5-7C49-A1A6-68FA21F81411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0545E4B7-2A83-874D-85BF-A803D809BFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{FAC5E3C7-3AE2-E347-9394-F47CC9282626}"/>
+    <workbookView xWindow="10680" yWindow="760" windowWidth="19560" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -38,6 +35,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
+    <t>Alg</t>
+  </si>
+  <si>
     <t>Model</t>
   </si>
   <si>
@@ -62,6 +62,21 @@
     <t>NB</t>
   </si>
   <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>J48</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
     <t>Baseline</t>
   </si>
   <si>
@@ -72,24 +87,6 @@
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>J48</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
   </si>
 </sst>
 </file>
@@ -98,8 +95,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -468,54 +465,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64736C1-9442-674B-8647-231797E94435}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
       <c r="C2">
-        <v>0.73699999999999999</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D2">
         <v>0.58699999999999997</v>
@@ -527,21 +523,21 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="G2">
-        <v>0.60399999999999998</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="H2">
         <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>0.73299999999999998</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="D3">
         <v>0.54500000000000004</v>
@@ -560,66 +556,66 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>0.76300000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>0.57799999999999996</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="E4">
-        <v>0.33400000000000002</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="F4">
-        <v>0.44600000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="G4">
-        <v>0.63100000000000001</v>
+        <v>0.623</v>
       </c>
       <c r="H4">
-        <v>0.17100000000000001</v>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>0.76200000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
-        <v>0.55100000000000005</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="E5">
-        <v>0.35599999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="F5">
-        <v>0.46400000000000002</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="G5">
-        <v>0.64900000000000002</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="H5">
-        <v>0.19900000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>0.54300000000000004</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D7">
         <v>0.2</v>
@@ -638,11 +634,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" t="s">
         <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0.69299999999999995</v>
@@ -654,7 +650,7 @@
         <v>0.61699999999999999</v>
       </c>
       <c r="F8">
-        <v>0.64400000000000002</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="G8">
         <v>0.83499999999999996</v>
@@ -664,63 +660,63 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.155</v>
+      </c>
+      <c r="E9">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="H9">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.122</v>
+      </c>
+      <c r="E10">
+        <v>0.69</v>
+      </c>
+      <c r="F10">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="D9">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="E9">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="F9">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="G9">
-        <v>0.871</v>
-      </c>
-      <c r="H9">
-        <v>0.58099999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="D10">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.75</v>
-      </c>
-      <c r="F10">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="G10">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="H10">
-        <v>0.70199999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
+      <c r="B12" t="s">
+        <v>14</v>
       </c>
       <c r="C12">
         <v>0.91500000000000004</v>
@@ -742,11 +738,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
       </c>
       <c r="C13">
         <v>0.999</v>
@@ -768,37 +764,37 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
       <c r="C14">
-        <v>0.95699999999999996</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D14">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E14">
-        <v>0.98499999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F14">
-        <v>0.97</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="G14">
-        <v>0.997</v>
+        <v>0.996</v>
       </c>
       <c r="H14">
-        <v>0.96199999999999997</v>
+        <v>0.95499999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -810,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -820,46 +816,46 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C17">
-        <v>0.54500000000000004</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D17">
-        <v>0.155</v>
+        <v>0.153</v>
       </c>
       <c r="E17">
-        <v>0.58399999999999996</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="F17">
-        <v>0.53</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="G17">
         <v>0.77400000000000002</v>
       </c>
       <c r="H17">
-        <v>0.40400000000000003</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>0.68200000000000005</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="D18">
-        <v>0.123</v>
+        <v>0.121</v>
       </c>
       <c r="E18">
-        <v>0.67800000000000005</v>
+        <v>0.68</v>
       </c>
       <c r="F18">
         <v>0.66</v>
@@ -868,67 +864,67 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="H18">
-        <v>0.56100000000000005</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D19">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="F19">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="G19">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.09</v>
+      </c>
+      <c r="E20">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.752</v>
+      </c>
+      <c r="G20">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H20">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
         <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="D19">
-        <v>0.107</v>
-      </c>
-      <c r="E19">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="F19">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="G19">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="H19">
-        <v>0.61699999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="D20">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="E20">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="F20">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="G20">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="H20">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C22">
         <v>0.89</v>
@@ -950,11 +946,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
         <v>15</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C23">
         <v>0.998</v>
@@ -976,37 +972,37 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>10</v>
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>0.94699999999999995</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="D24">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E24">
-        <v>0.995</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F24">
-        <v>0.96899999999999997</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="G24">
-        <v>0.998</v>
+        <v>0.997</v>
       </c>
       <c r="H24">
-        <v>0.96199999999999997</v>
+        <v>0.95499999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1028,40 +1024,40 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
       </c>
       <c r="C27">
         <v>0.48399999999999999</v>
       </c>
       <c r="D27">
-        <v>0.22700000000000001</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="E27">
-        <v>0.42099999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="F27">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="G27">
         <v>0.68300000000000005</v>
       </c>
       <c r="H27">
-        <v>0.246</v>
+        <v>0.24399999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>0.53800000000000003</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D28">
         <v>0.222</v>
@@ -1080,55 +1076,55 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C29">
-        <v>0.59199999999999997</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="D29">
+        <v>0.218</v>
+      </c>
+      <c r="E29">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F29">
+        <v>0.505</v>
+      </c>
+      <c r="G29">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="H29">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>0.59</v>
+      </c>
+      <c r="D30">
         <v>0.21299999999999999</v>
       </c>
-      <c r="E29">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="F29">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="G29">
-        <v>0.748</v>
-      </c>
-      <c r="H29">
-        <v>0.36099999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="D30">
-        <v>0.20699999999999999</v>
-      </c>
       <c r="E30">
-        <v>0.51800000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="F30">
-        <v>0.55700000000000005</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="G30">
-        <v>0.76400000000000001</v>
+        <v>0.745</v>
       </c>
       <c r="H30">
-        <v>0.39200000000000002</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
   </sheetData>
